--- a/SourceDataTables/FigS21.xlsx
+++ b/SourceDataTables/FigS21.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="10">
   <si>
     <t>S21_xdata</t>
   </si>
@@ -63,7 +63,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -73,14 +73,34 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -106,34 +126,34 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
     </row>

--- a/SourceDataTables/FigS21.xlsx
+++ b/SourceDataTables/FigS21.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="10">
   <si>
     <t>S21_xdata</t>
   </si>
@@ -63,7 +63,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -83,11 +83,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -101,6 +103,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -126,34 +130,34 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="13" t="s">
         <v>9</v>
       </c>
     </row>

--- a/SourceDataTables/FigS21.xlsx
+++ b/SourceDataTables/FigS21.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>S21_xdata</t>
   </si>
@@ -63,7 +63,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -73,38 +73,14 @@
     </border>
     <border/>
     <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -130,34 +106,34 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="13" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
